--- a/Data Sets (Excels)/Data.xlsx
+++ b/Data Sets (Excels)/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofh-my.sharepoint.com/personal/jmfalou_cougarnet_uh_edu/Documents/~Computer Science/z. Hackathon Projects/HalfStackDevs_CodeRedGenesis/Data Sets (Excels)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9244629C-B2CC-40ED-8E18-9A617CC7D076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="8_{9244629C-B2CC-40ED-8E18-9A617CC7D076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D493C55-5A0A-4A34-A2A0-F5521CD71213}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{01528FDC-71FA-430E-A617-D3435C6CD15B}"/>
   </bookViews>
@@ -35,9 +35,205 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+  <si>
+    <t>U.S.A.</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Norway/UK</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>GHGs (thousand tonnes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CO2 from Operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CO2 from Imported Electricity</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>&lt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Methane (CO2e) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nitrous Oxide (CO2e) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Greenhouse Gases </t>
+  </si>
+  <si>
+    <t>Other Air Emissions (tonnes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Volatile Organic Compounds (VOCs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nitrogen Oxides (NOx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sulfur Oxides (SOx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Particulate Matter (PM)</t>
+  </si>
+  <si>
+    <t>Energy Use (trillion BTUs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Combustion Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Imported Electricity</t>
+  </si>
+  <si>
+    <t>Total Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Fresh Water Withdrawn (million cubic meters)</t>
+  </si>
+  <si>
+    <t>&lt;0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Hydrocarbons in Overboard Discharges (tonnes)</t>
+  </si>
+  <si>
+    <t>Liquid Hydrocarbon Spills to the Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Number of Spills &gt; 100 Barrels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Spills &gt; 100 Barrels (barrels)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Number of Spills &gt; 1 Barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Spills &gt; 1 Barrel (barrels)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Volume Recovered from Spills &gt; 1 Barrel (barrels)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Hazardous Waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Non-Hazardous Waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Recycled Waste</t>
+  </si>
+  <si>
+    <t>Total Waste Generated</t>
+  </si>
+  <si>
+    <t>Waste Disposed</t>
+  </si>
+  <si>
+    <t>Total Greenhouse Gas Intensity</t>
+  </si>
+  <si>
+    <t>(kg CO2e/BOE)</t>
+  </si>
+  <si>
+    <t>Flaring Volume</t>
+  </si>
+  <si>
+    <t>(million cubic feet, routine and non-routine)</t>
+  </si>
+  <si>
+    <t>Total Operated Production</t>
+  </si>
+  <si>
+    <t>PRODUCTION (MMBOE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Produced Water Recycle/Reuse (million cubic meters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Non-Fresh Water Withdrawn (million cubic meters)</t>
+  </si>
+  <si>
+    <t>All Others</t>
+  </si>
+  <si>
+    <t>Waste (tonnes)</t>
+  </si>
+  <si>
+    <t>MBOED</t>
+  </si>
+  <si>
+    <t>Proved Reserves</t>
+  </si>
+  <si>
+    <t>BBOE</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Capitol Expenditure</t>
+  </si>
+  <si>
+    <t>Billions of USD</t>
+  </si>
+  <si>
+    <t>Net Acreage</t>
+  </si>
+  <si>
+    <t>Millions of Acres</t>
+  </si>
+  <si>
+    <t>Exploration and Production Facilities</t>
+  </si>
+  <si>
+    <t>Key Development of Program</t>
+  </si>
+  <si>
+    <t># Facilities</t>
+  </si>
+  <si>
+    <t>Key Office Locations (including headquarters)</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Europe/Middle East</t>
+  </si>
+  <si>
+    <t>Asia Pacific</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,###"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +241,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -62,15 +319,391 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{6E9C2E63-9F6E-43C0-BFCD-2DC1E9F19C6C}"/>
+    <cellStyle name="Comma 3" xfId="1" xr:uid="{5A82E13B-363A-4213-A91E-BC6C6BE2C799}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{DE839A1D-33E5-4501-8CC4-91A538EA1B17}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{D14F8D44-1CBC-4CEA-A095-97FA916B70BC}"/>
+    <cellStyle name="Normal_Display" xfId="5" xr:uid="{E72CA9E3-185D-45DD-8700-5C8076996073}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,12 +1015,948 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD79D05-1C1C-472E-A15B-34FE015967C9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.08984375" style="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
+        <v>6129.1431650302193</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3216.65688</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1093.52761317</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2103.5511800000004</v>
+      </c>
+      <c r="E2" s="8">
+        <v>685.36830000000009</v>
+      </c>
+      <c r="F2" s="12">
+        <v>13228.247138200219</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>710.73203000000001</v>
+      </c>
+      <c r="B3" s="4">
+        <v>335.60883000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>13.548</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1059.88886</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>1592.901827801438</v>
+      </c>
+      <c r="B4" s="4">
+        <v>46.285925000000006</v>
+      </c>
+      <c r="C4" s="4">
+        <v>26.986585121249998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>28.360250000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9.9607500000000009</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1704.4953379226879</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>7.9033390978040003</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6.7634080000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.8740000000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.7284000000000002</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.1741199999999998</v>
+      </c>
+      <c r="F5" s="13">
+        <v>21.443267097804</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>8440.6803619294606</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3605.3150430000001</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1137.9361982912501</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2133.6398300000005</v>
+      </c>
+      <c r="E6" s="4">
+        <v>696.50317000000007</v>
+      </c>
+      <c r="F6" s="13">
+        <v>16014.07460322071</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>18.958874153611692</v>
+      </c>
+      <c r="B7" s="4">
+        <v>56.309847889544507</v>
+      </c>
+      <c r="C7" s="4">
+        <v>14.155931772886333</v>
+      </c>
+      <c r="D7" s="4">
+        <v>25.843505692829464</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43.26106645962733</v>
+      </c>
+      <c r="F7" s="13">
+        <v>23.26672817921397</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>15972.450569727</v>
+      </c>
+      <c r="B8" s="4">
+        <v>238.91200000000001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>600.09470903299996</v>
+      </c>
+      <c r="D8" s="4">
+        <v>665.71</v>
+      </c>
+      <c r="E8" s="4">
+        <v>380.8</v>
+      </c>
+      <c r="F8" s="13">
+        <v>17857.967278759999</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>94256.845479921001</v>
+      </c>
+      <c r="B9" s="4">
+        <v>534.73397999999997</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3533.33012328</v>
+      </c>
+      <c r="D9" s="4">
+        <v>77.12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>105.59</v>
+      </c>
+      <c r="F9" s="13">
+        <v>98507.619583200998</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>42846.268449704003</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2085.8160600000001</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1932.696238665</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1193.19</v>
+      </c>
+      <c r="E10" s="4">
+        <v>469.8</v>
+      </c>
+      <c r="F10" s="13">
+        <v>48527.770748369003</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>1548.1094865510001</v>
+      </c>
+      <c r="B11" s="4">
+        <v>929.76693999999998</v>
+      </c>
+      <c r="C11" s="4">
+        <v>120.18351857499999</v>
+      </c>
+      <c r="D11" s="4">
+        <v>14.73</v>
+      </c>
+      <c r="E11" s="4">
+        <v>88.02000000000001</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2700.809945126</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>1246.1935030069999</v>
+      </c>
+      <c r="B12" s="4">
+        <v>114.93527</v>
+      </c>
+      <c r="C12" s="4">
+        <v>78.333718743999995</v>
+      </c>
+      <c r="D12" s="4">
+        <v>52</v>
+      </c>
+      <c r="E12" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1507.8624917509999</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>81.33</v>
+      </c>
+      <c r="B13" s="4">
+        <v>58.277000000000001</v>
+      </c>
+      <c r="C13" s="4">
+        <v>16.857970160000001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>38.119999999999997</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.165</v>
+      </c>
+      <c r="F13" s="13">
+        <v>198.74997016</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>5.6031334342578987</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1.7892880000319999</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="13">
+        <v>7.3924214342898988</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>86.933133434257897</v>
+      </c>
+      <c r="B15" s="4">
+        <v>60.066288000032003</v>
+      </c>
+      <c r="C15" s="4">
+        <v>16.857970160000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>38.119999999999997</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.165</v>
+      </c>
+      <c r="F15" s="13">
+        <v>206.1423915942899</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.6238950000000001</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="13">
+        <v>9.2238950000000006</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>26.665239999999997</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.11321200000000001</v>
+      </c>
+      <c r="C17" s="4">
+        <v>25.853999999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F17" s="13">
+        <v>52.633552000000002</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>49.61356</v>
+      </c>
+      <c r="B18" s="4">
+        <v>24.410564999999998</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>74.024124999999998</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>129.48417890000002</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>129.48417890000002</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>2</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>195</v>
+      </c>
+      <c r="B21" s="4">
+        <v>104</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>299</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>96</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>99</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>749</v>
+      </c>
+      <c r="B23" s="4">
+        <v>112</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>861</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>390</v>
+      </c>
+      <c r="B24" s="4">
+        <v>106</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>496</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <v>23.32</v>
+      </c>
+      <c r="B25" s="4">
+        <v>69791</v>
+      </c>
+      <c r="C25" s="4">
+        <v>8540.1005999999998</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4.42</v>
+      </c>
+      <c r="E25" s="4">
+        <v>240.92</v>
+      </c>
+      <c r="F25" s="13">
+        <v>78599.760600000009</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>197546.25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>121554</v>
+      </c>
+      <c r="C26" s="4">
+        <v>3114.5836600000002</v>
+      </c>
+      <c r="D26" s="4">
+        <v>144.52000000000001</v>
+      </c>
+      <c r="E26" s="4">
+        <v>129.26300000000001</v>
+      </c>
+      <c r="F26" s="13">
+        <v>322488.61666</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <v>252483.16</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5311</v>
+      </c>
+      <c r="C27" s="4">
+        <v>7168.9109500000004</v>
+      </c>
+      <c r="D27" s="4">
+        <v>518.64</v>
+      </c>
+      <c r="E27" s="4">
+        <v>25.83</v>
+      </c>
+      <c r="F27" s="13">
+        <v>265507.54095000005</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <v>450052.73</v>
+      </c>
+      <c r="B28" s="4">
+        <v>196656</v>
+      </c>
+      <c r="C28" s="4">
+        <v>18823.595209999999</v>
+      </c>
+      <c r="D28" s="4">
+        <v>667.57999999999993</v>
+      </c>
+      <c r="E28" s="4">
+        <v>396.01299999999998</v>
+      </c>
+      <c r="F28" s="13">
+        <v>666595.91821000003</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <v>197569.57</v>
+      </c>
+      <c r="B29" s="4">
+        <v>191345</v>
+      </c>
+      <c r="C29" s="4">
+        <v>11654.68426</v>
+      </c>
+      <c r="D29" s="4">
+        <v>148.94</v>
+      </c>
+      <c r="E29" s="4">
+        <v>370.18299999999999</v>
+      </c>
+      <c r="F29" s="13">
+        <v>401088.37725999998</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="5">
+        <v>445.21</v>
+      </c>
+      <c r="B30" s="6">
+        <v>64.026368000000005</v>
+      </c>
+      <c r="C30" s="6">
+        <v>80.385821050000004</v>
+      </c>
+      <c r="D30" s="6">
+        <v>82.56</v>
+      </c>
+      <c r="E30" s="6">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F30" s="14">
+        <v>688.28218905000006</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="32">
+        <f>989+200</f>
+        <v>1189</v>
+      </c>
+      <c r="B33" s="33">
+        <v>85</v>
+      </c>
+      <c r="C33" s="33">
+        <v>248</v>
+      </c>
+      <c r="D33" s="34">
+        <v>216</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="32">
+        <f>3+1.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="B34" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="C34" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="32">
+        <f>5.6+1.1</f>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="B35" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="33">
+        <v>1</v>
+      </c>
+      <c r="D35" s="34">
+        <v>1.9</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="32">
+        <f>10.3+1.8</f>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="B36" s="33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C36" s="33">
+        <v>3.2</v>
+      </c>
+      <c r="D36" s="34">
+        <v>7.1</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="32">
+        <v>2</v>
+      </c>
+      <c r="B37" s="33">
+        <v>1</v>
+      </c>
+      <c r="C37" s="33">
+        <v>3</v>
+      </c>
+      <c r="D37" s="34">
+        <v>3</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="32">
+        <v>7</v>
+      </c>
+      <c r="B38" s="33">
+        <v>2</v>
+      </c>
+      <c r="C38" s="33">
+        <v>6</v>
+      </c>
+      <c r="D38" s="34">
+        <v>5</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="35">
+        <v>3</v>
+      </c>
+      <c r="B39" s="36">
+        <v>1</v>
+      </c>
+      <c r="C39" s="36">
+        <v>5</v>
+      </c>
+      <c r="D39" s="37">
+        <v>4</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="1"/>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="H25:H29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Sets (Excels)/Data.xlsx
+++ b/Data Sets (Excels)/Data.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofh-my.sharepoint.com/personal/jmfalou_cougarnet_uh_edu/Documents/~Computer Science/z. Hackathon Projects/HalfStackDevs_CodeRedGenesis/Data Sets (Excels)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="8_{9244629C-B2CC-40ED-8E18-9A617CC7D076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E1EF221-6A9E-4B1B-AAB4-DFEF83A10E15}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="8_{9244629C-B2CC-40ED-8E18-9A617CC7D076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13521D8A-D13A-413B-8009-F984F0D7145A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{01528FDC-71FA-430E-A617-D3435C6CD15B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{01528FDC-71FA-430E-A617-D3435C6CD15B}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
-    <sheet name="GHG" sheetId="2" r:id="rId2"/>
-    <sheet name="Energy" sheetId="3" r:id="rId3"/>
-    <sheet name="Water" sheetId="4" r:id="rId4"/>
-    <sheet name="Waste" sheetId="5" r:id="rId5"/>
-    <sheet name="Spills" sheetId="6" r:id="rId6"/>
-    <sheet name="Production and Facility Info" sheetId="7" r:id="rId7"/>
+    <sheet name="Sustainability Scores" sheetId="8" r:id="rId2"/>
+    <sheet name="GHG" sheetId="2" r:id="rId3"/>
+    <sheet name="Energy" sheetId="3" r:id="rId4"/>
+    <sheet name="Water" sheetId="4" r:id="rId5"/>
+    <sheet name="Waste" sheetId="5" r:id="rId6"/>
+    <sheet name="Spills" sheetId="6" r:id="rId7"/>
+    <sheet name="Production and Facility Info" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="67">
   <si>
     <t>U.S.A.</t>
   </si>
@@ -225,6 +226,24 @@
   </si>
   <si>
     <t>&lt;0.2</t>
+  </si>
+  <si>
+    <t>Sustainability Score (Out of 100)</t>
+  </si>
+  <si>
+    <t>GHG Score (Out of 20)</t>
+  </si>
+  <si>
+    <t>Energy Score (Out of 20)</t>
+  </si>
+  <si>
+    <t>Water Score (Out of 20)</t>
+  </si>
+  <si>
+    <t>Waste Score (Out of 20)</t>
+  </si>
+  <si>
+    <t>Spills Score (Out of 20)</t>
   </si>
 </sst>
 </file>
@@ -236,7 +255,7 @@
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +303,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -305,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -646,6 +674,201 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -659,7 +882,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
@@ -693,10 +916,16 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,12 +946,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{6E9C2E63-9F6E-43C0-BFCD-2DC1E9F19C6C}"/>
@@ -1049,7 +1285,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1110,7 +1346,7 @@
       <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="8">
@@ -1139,7 +1375,7 @@
       <c r="F3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="30"/>
       <c r="M3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1166,7 +1402,7 @@
       <c r="F4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="30"/>
       <c r="M4" s="4">
         <v>28.360250000000001</v>
       </c>
@@ -1193,7 +1429,7 @@
       <c r="F5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="30"/>
       <c r="M5" s="4">
         <v>1.7284000000000002</v>
       </c>
@@ -1220,7 +1456,7 @@
       <c r="F6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="30"/>
       <c r="M6" s="4">
         <v>2133.6398300000005</v>
       </c>
@@ -1305,7 +1541,7 @@
       <c r="F9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="30" t="s">
         <v>12</v>
       </c>
       <c r="M9" s="4">
@@ -1334,7 +1570,7 @@
       <c r="F10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="30"/>
       <c r="M10" s="4">
         <v>1193.19</v>
       </c>
@@ -1361,7 +1597,7 @@
       <c r="F11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="30"/>
       <c r="M11" s="4">
         <v>14.73</v>
       </c>
@@ -1388,7 +1624,7 @@
       <c r="F12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="30"/>
       <c r="M12" s="4">
         <v>52</v>
       </c>
@@ -1415,7 +1651,7 @@
       <c r="F13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="31" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="4">
@@ -1444,7 +1680,7 @@
       <c r="F14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="31"/>
       <c r="M14" s="4">
         <v>0</v>
       </c>
@@ -1471,7 +1707,7 @@
       <c r="F15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="27"/>
+      <c r="G15" s="31"/>
       <c r="M15" s="4">
         <v>38.119999999999997</v>
       </c>
@@ -1498,7 +1734,7 @@
       <c r="F16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="32" t="s">
         <v>21</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1527,7 +1763,7 @@
       <c r="F17" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="32"/>
       <c r="M17" s="4">
         <v>0</v>
       </c>
@@ -1554,7 +1790,7 @@
       <c r="F18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="32"/>
       <c r="M18" s="4">
         <v>0</v>
       </c>
@@ -1581,7 +1817,7 @@
       <c r="F19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="32"/>
       <c r="M19" s="4">
         <v>0</v>
       </c>
@@ -1608,7 +1844,7 @@
       <c r="F20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="33" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="4">
@@ -1637,7 +1873,7 @@
       <c r="F21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="33"/>
       <c r="M21" s="4">
         <v>0</v>
       </c>
@@ -1664,7 +1900,7 @@
       <c r="F22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="33"/>
       <c r="M22" s="4">
         <v>0</v>
       </c>
@@ -1691,7 +1927,7 @@
       <c r="F23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="33"/>
       <c r="M23" s="4">
         <v>0</v>
       </c>
@@ -1718,7 +1954,7 @@
       <c r="F24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="33"/>
       <c r="M24" s="4">
         <v>0</v>
       </c>
@@ -1745,7 +1981,7 @@
       <c r="F25" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="32" t="s">
         <v>45</v>
       </c>
       <c r="M25" s="4">
@@ -1774,7 +2010,7 @@
       <c r="F26" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="32"/>
       <c r="M26" s="4">
         <v>144.52000000000001</v>
       </c>
@@ -1801,7 +2037,7 @@
       <c r="F27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="32"/>
       <c r="M27" s="4">
         <v>518.64</v>
       </c>
@@ -1828,7 +2064,7 @@
       <c r="F28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="28"/>
+      <c r="G28" s="32"/>
       <c r="M28" s="4">
         <v>667.57999999999993</v>
       </c>
@@ -1855,7 +2091,7 @@
       <c r="F29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="28"/>
+      <c r="G29" s="32"/>
       <c r="M29" s="4">
         <v>148.94</v>
       </c>
@@ -1906,14 +2142,14 @@
       <c r="D31" s="12">
         <v>216</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="27">
         <f>SUM(A31:D31)</f>
         <v>1738</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1931,7 +2167,7 @@
       <c r="D32" s="13">
         <v>0.2</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="27">
         <f t="shared" ref="E32:E37" si="0">SUM(A32:D32)</f>
         <v>5.4</v>
       </c>
@@ -1956,7 +2192,7 @@
       <c r="D33" s="13">
         <v>1.9</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="27">
         <f t="shared" si="0"/>
         <v>10.1</v>
       </c>
@@ -1981,7 +2217,7 @@
       <c r="D34" s="13">
         <v>7.1</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="27">
         <f t="shared" si="0"/>
         <v>24.6</v>
       </c>
@@ -2005,14 +2241,14 @@
       <c r="D35" s="13">
         <v>3</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="34" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2029,14 +2265,14 @@
       <c r="D36" s="13">
         <v>5</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F36" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="31"/>
+      <c r="G36" s="35"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
@@ -2051,14 +2287,14 @@
       <c r="D37" s="14">
         <v>4</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="28">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="32"/>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="H38" s="1"/>
@@ -2087,24 +2323,160 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="G35:G37"/>
     <mergeCell ref="G2:G6"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="G35:G37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89354511-5590-41A0-9016-9541792A2696}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="28.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="44">
+        <f xml:space="preserve"> 20000 / GHG!A6 + 2000 / SUM( GHG!A8:A12)</f>
+        <v>2.3823084554870104</v>
+      </c>
+      <c r="C2" s="44">
+        <f xml:space="preserve"> 20000 / GHG!B6 + 2000 / SUM( GHG!B8:B12)</f>
+        <v>6.0596389501013492</v>
+      </c>
+      <c r="D2" s="44">
+        <f xml:space="preserve"> 20000 / GHG!C6 + 2000 / SUM( GHG!C8:C12)</f>
+        <v>17.894930089120145</v>
+      </c>
+      <c r="E2" s="44">
+        <f xml:space="preserve"> 20000 / GHG!D6 + 2000 / SUM( GHG!D8:D12)</f>
+        <v>7.719658610227814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="45">
+        <f>333 / Energy!A4</f>
+        <v>3.8305302805152781</v>
+      </c>
+      <c r="C3" s="45">
+        <f>333 / Energy!B4</f>
+        <v>5.5438751267570021</v>
+      </c>
+      <c r="D3" s="45">
+        <f>333 / Energy!C4</f>
+        <v>19.753267851317634</v>
+      </c>
+      <c r="E3" s="45">
+        <f>333 / Energy!D4</f>
+        <v>7.8751330258957086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="45">
+        <f>1 / SUM(Water!A2:A3) + Water!A4 / 1000 + 5 / (Water!A5 + 1)</f>
+        <v>5.0807999786888978</v>
+      </c>
+      <c r="C4" s="45">
+        <f>1 / SUM(Water!B2:B3) + Water!B4 / 1000 + 5 / (Water!B5 + 1)</f>
+        <v>5.4762425630191682</v>
+      </c>
+      <c r="D4" s="45">
+        <f>1 / SUM(Water!C2:C3) + Water!C4 / 1000 + 5 / (Water!C5 + 1)</f>
+        <v>7.4711711437762368E-2</v>
+      </c>
+      <c r="E4" s="45">
+        <f>1 / SUM(Water!D2:D3) + Water!D4 / 1000 + 5 / (Water!D5 + 1)</f>
+        <v>914.09090909090901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="49">
+        <f>SUM(B2:B6)</f>
+        <v>11.293638714691186</v>
+      </c>
+      <c r="C7" s="49">
+        <f t="shared" ref="C7:E7" si="0">SUM(C2:C6)</f>
+        <v>17.07975663987752</v>
+      </c>
+      <c r="D7" s="49">
+        <f t="shared" si="0"/>
+        <v>37.722909651875547</v>
+      </c>
+      <c r="E7" s="49">
+        <f t="shared" si="0"/>
+        <v>929.68570072703255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DA8A9C-7F0B-48FD-A6B9-A601A5AB1BB5}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2155,7 +2527,7 @@
       <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2178,7 +2550,7 @@
       <c r="F3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
@@ -2199,7 +2571,7 @@
       <c r="F4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
@@ -2220,7 +2592,7 @@
       <c r="F5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
@@ -2241,7 +2613,7 @@
       <c r="F6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
@@ -2308,7 +2680,7 @@
       <c r="F9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2331,7 +2703,7 @@
       <c r="F10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
@@ -2352,7 +2724,7 @@
       <c r="F11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
@@ -2373,7 +2745,7 @@
       <c r="F12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
@@ -2401,7 +2773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCBF7FB-3307-4FF3-9BFC-72AE6EAC5AEC}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -2458,7 +2830,7 @@
       <c r="F2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2481,7 +2853,7 @@
       <c r="F3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
@@ -2502,7 +2874,7 @@
       <c r="F4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -2529,7 +2901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599D00AE-532C-4236-A29F-E6773C135A02}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -2586,7 +2958,7 @@
       <c r="F2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2609,7 +2981,7 @@
       <c r="F3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
@@ -2630,7 +3002,7 @@
       <c r="F4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
@@ -2651,7 +3023,7 @@
       <c r="F5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -2670,7 +3042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9FFD7F-7C5B-49EF-AEAC-F16A9FD511A8}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2727,7 +3099,7 @@
       <c r="F2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2750,7 +3122,7 @@
       <c r="F3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
@@ -2771,7 +3143,7 @@
       <c r="F4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
@@ -2792,7 +3164,7 @@
       <c r="F5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
@@ -2813,7 +3185,7 @@
       <c r="F6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -2840,7 +3212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B326DB89-EB0C-40D8-9CBF-5F3D7B0A1993}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2897,7 +3269,7 @@
       <c r="F2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="33" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2920,7 +3292,7 @@
       <c r="F3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
@@ -2941,7 +3313,7 @@
       <c r="F4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
@@ -2962,7 +3334,7 @@
       <c r="F5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
@@ -2983,7 +3355,7 @@
       <c r="F6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -3010,11 +3382,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C4FF68-BC2E-4B44-9D83-60450A12F19E}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3085,14 +3457,14 @@
       <c r="D3" s="12">
         <v>216</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="27">
         <f>SUM(A3:D3)</f>
         <v>1738</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3110,7 +3482,7 @@
       <c r="D4" s="13">
         <v>0.2</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="27">
         <f t="shared" ref="E4:E9" si="0">SUM(A4:D4)</f>
         <v>5.4</v>
       </c>
@@ -3135,7 +3507,7 @@
       <c r="D5" s="13">
         <v>1.9</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="27">
         <f t="shared" si="0"/>
         <v>10.1</v>
       </c>
@@ -3160,7 +3532,7 @@
       <c r="D6" s="13">
         <v>7.1</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>24.6</v>
       </c>
@@ -3184,14 +3556,14 @@
       <c r="D7" s="13">
         <v>3</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="34" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3208,14 +3580,14 @@
       <c r="D8" s="13">
         <v>5</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
@@ -3230,14 +3602,14 @@
       <c r="D9" s="14">
         <v>4</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="28">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="H10" s="1"/>
